--- a/data/outputs/数学期刊(上)_altmetric/44.Educational Studies in Mathematics.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/44.Educational Studies in Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG63"/>
+  <dimension ref="A1:AH63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -647,6 +652,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -760,6 +768,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -875,6 +886,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -990,6 +1004,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1105,6 +1122,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1220,6 +1240,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1334,6 +1357,9 @@
       </c>
       <c r="AG8" t="n">
         <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="9">
@@ -1448,6 +1474,9 @@
       <c r="AG9" t="n">
         <v>0</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1563,6 +1592,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1675,6 +1707,9 @@
       </c>
       <c r="AG11" t="n">
         <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -1785,6 +1820,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1900,6 +1938,9 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2015,6 +2056,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2130,6 +2174,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2245,6 +2292,9 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2359,6 +2409,9 @@
       </c>
       <c r="AG17" t="n">
         <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="18">
@@ -2471,6 +2524,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2584,6 +2640,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2699,6 +2758,9 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2814,6 +2876,9 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2925,6 +2990,9 @@
       <c r="AG22" t="n">
         <v>0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3038,6 +3106,9 @@
       <c r="AG23" t="n">
         <v>0</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3153,6 +3224,9 @@
       <c r="AG24" t="n">
         <v>0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3268,6 +3342,9 @@
       <c r="AG25" t="n">
         <v>0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>9.9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3383,6 +3460,9 @@
       <c r="AG26" t="n">
         <v>0</v>
       </c>
+      <c r="AH26" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3498,6 +3578,9 @@
       <c r="AG27" t="n">
         <v>0</v>
       </c>
+      <c r="AH27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3613,6 +3696,9 @@
       <c r="AG28" t="n">
         <v>0</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3728,6 +3814,9 @@
       <c r="AG29" t="n">
         <v>0</v>
       </c>
+      <c r="AH29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3841,6 +3930,9 @@
       <c r="AG30" t="n">
         <v>0</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3955,6 +4047,9 @@
       </c>
       <c r="AG31" t="n">
         <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -4069,6 +4164,9 @@
       <c r="AG32" t="n">
         <v>0</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4184,6 +4282,9 @@
       <c r="AG33" t="n">
         <v>0</v>
       </c>
+      <c r="AH33" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4297,6 +4398,9 @@
       <c r="AG34" t="n">
         <v>0</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4412,6 +4516,9 @@
       <c r="AG35" t="n">
         <v>0</v>
       </c>
+      <c r="AH35" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4525,6 +4632,9 @@
       <c r="AG36" t="n">
         <v>0</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4644,6 +4754,9 @@
       <c r="AG37" t="n">
         <v>0</v>
       </c>
+      <c r="AH37" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4759,6 +4872,9 @@
       <c r="AG38" t="n">
         <v>0</v>
       </c>
+      <c r="AH38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4874,6 +4990,9 @@
       <c r="AG39" t="n">
         <v>0</v>
       </c>
+      <c r="AH39" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4989,6 +5108,9 @@
       <c r="AG40" t="n">
         <v>0</v>
       </c>
+      <c r="AH40" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5102,6 +5224,9 @@
       <c r="AG41" t="n">
         <v>0</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5217,6 +5342,9 @@
       <c r="AG42" t="n">
         <v>0</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5330,6 +5458,9 @@
       <c r="AG43" t="n">
         <v>0</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5447,6 +5578,9 @@
       <c r="AG44" t="n">
         <v>0</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5560,6 +5694,9 @@
       <c r="AG45" t="n">
         <v>0</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5675,6 +5812,9 @@
       <c r="AG46" t="n">
         <v>0</v>
       </c>
+      <c r="AH46" t="n">
+        <v>39.6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5790,6 +5930,9 @@
       <c r="AG47" t="n">
         <v>0</v>
       </c>
+      <c r="AH47" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5903,6 +6046,9 @@
       <c r="AG48" t="n">
         <v>0</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6018,6 +6164,9 @@
       <c r="AG49" t="n">
         <v>0</v>
       </c>
+      <c r="AH49" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6131,6 +6280,9 @@
       <c r="AG50" t="n">
         <v>0</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6242,6 +6394,9 @@
       <c r="AG51" t="n">
         <v>0</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6355,6 +6510,9 @@
       <c r="AG52" t="n">
         <v>0</v>
       </c>
+      <c r="AH52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6468,6 +6626,9 @@
       <c r="AG53" t="n">
         <v>0</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6583,6 +6744,9 @@
       <c r="AG54" t="n">
         <v>0</v>
       </c>
+      <c r="AH54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6696,6 +6860,9 @@
       <c r="AG55" t="n">
         <v>0</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6811,6 +6978,9 @@
       <c r="AG56" t="n">
         <v>0</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6924,6 +7094,9 @@
       <c r="AG57" t="n">
         <v>0</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7039,6 +7212,9 @@
       <c r="AG58" t="n">
         <v>0</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7154,6 +7330,9 @@
       <c r="AG59" t="n">
         <v>0</v>
       </c>
+      <c r="AH59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7267,6 +7446,9 @@
       <c r="AG60" t="n">
         <v>0</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7382,6 +7564,9 @@
       <c r="AG61" t="n">
         <v>0</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7495,6 +7680,9 @@
       <c r="AG62" t="n">
         <v>0</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7606,6 +7794,9 @@
         <v>0</v>
       </c>
       <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
         <v>0</v>
       </c>
     </row>
